--- a/data/JohnsonLitigationResearch.xlsx
+++ b/data/JohnsonLitigationResearch.xlsx
@@ -399,10 +399,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12417</v>
+        <v>33066</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>39416</v>
+        <v>43149</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -411,22 +411,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15011</v>
+        <v>41678</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>39222</v>
+        <v>43168</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9385</v>
+        <v>25653</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>38783</v>
+        <v>43282</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -435,70 +435,70 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13277</v>
+        <v>30041</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>39500</v>
+        <v>43269</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21056</v>
+        <v>27548</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>42350</v>
+        <v>43121</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19037</v>
+        <v>5121</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>37345</v>
+        <v>43278</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43349</v>
+        <v>28603</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>37960</v>
+        <v>43133</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14830</v>
+        <v>31561</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>40534</v>
+        <v>43224</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8963</v>
+        <v>37883</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>39127</v>
+        <v>43164</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20330</v>
+        <v>37388</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>39490</v>
+        <v>43247</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20904</v>
+        <v>12564</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>40079</v>
+        <v>43180</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -531,22 +531,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43254</v>
+        <v>29981</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>38315</v>
+        <v>43141</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16591</v>
+        <v>4526</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>38945</v>
+        <v>43149</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -555,22 +555,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21353</v>
+        <v>44675</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>37336</v>
+        <v>43227</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11836</v>
+        <v>30754</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>37923</v>
+        <v>43267</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>33959</v>
+        <v>42878</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>41464</v>
+        <v>43231</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19555</v>
+        <v>27945</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>38239</v>
+        <v>43158</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -603,22 +603,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25184</v>
+        <v>21747</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>39256</v>
+        <v>43070</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13430</v>
+        <v>25226</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>42486</v>
+        <v>43173</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7379</v>
+        <v>7187</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>37697</v>
+        <v>43184</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>34753</v>
+        <v>39719</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>39281</v>
+        <v>43173</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -651,22 +651,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5941</v>
+        <v>40039</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>41712</v>
+        <v>43108</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>41843</v>
+        <v>28006</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>41059</v>
+        <v>43119</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>38522</v>
+        <v>1244</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>37701</v>
+        <v>43285</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -687,13 +687,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11528</v>
+        <v>44161</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>38449</v>
+        <v>43185</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26"/>
     </row>
